--- a/cluster/data test/dist-change-homer-nmdar-LTD-2.xlsx
+++ b/cluster/data test/dist-change-homer-nmdar-LTD-2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andre\Data\2017\LTD\20171103\cell2\analysis\cluster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Andre\Data\2017\LTD\20171103\cell2\analysis\cluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,1053 +335,1443 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B130"/>
+      <selection sqref="A1:C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>619.74259456047503</v>
       </c>
       <c r="B1">
         <v>868.17350526897087</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>163.39812049535757</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>549.93896904463395</v>
       </c>
       <c r="B2">
         <v>743.06191556549743</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>113.64301007509459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80.243573725692301</v>
       </c>
       <c r="B3">
         <v>98.556820286813277</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>97.929075344968666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>190.02048140216621</v>
       </c>
       <c r="B4">
         <v>232.65446380188675</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>185.53917713005595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>214.40899406756492</v>
       </c>
       <c r="B5">
         <v>250.98845900614322</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>223.04359622339996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>385.77812483108858</v>
       </c>
       <c r="B6">
         <v>379.14441267940617</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>102.10710368504223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>849.43549839862942</v>
       </c>
       <c r="B7">
         <v>901.3527907111777</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>133.13546418802528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>170.97209292136876</v>
       </c>
       <c r="B8">
         <v>384.96162449085466</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>98.721247502085589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>359.94765506990319</v>
       </c>
       <c r="B9">
         <v>908.70398157877207</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>242.25549944908607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>208.82271139833603</v>
       </c>
       <c r="B10">
         <v>91.737466603462167</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>100.04928762589121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>362.97790202015767</v>
       </c>
       <c r="B11">
         <v>449.45224291519798</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>77.756570607641706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>366.00682387046055</v>
       </c>
       <c r="B12">
         <v>538.204440805638</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>119.15939193849388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>507.83724927209965</v>
       </c>
       <c r="B13">
         <v>361.35672864402466</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>104.3105206810127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>133.48913048899465</v>
       </c>
       <c r="B14">
         <v>122.57604207811923</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>116.61345744789864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>545.3941298668509</v>
       </c>
       <c r="B15">
         <v>607.97019349263542</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>141.48552212844086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>198.982780543947</v>
       </c>
       <c r="B16">
         <v>47.230184745639548</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>126.68190206317034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>117.26478323046207</v>
       </c>
       <c r="B17">
         <v>120.6404983749124</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>91.638499032668705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1081.4820959099222</v>
       </c>
       <c r="B18">
         <v>290.44083197324863</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>106.53330596501397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>66.484602909284249</v>
       </c>
       <c r="B19">
         <v>131.90944943051761</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>220.41997285351985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1152.9849726519105</v>
       </c>
       <c r="B20">
         <v>964.74429820189971</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>176.14630766950495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>123.6633933415504</v>
       </c>
       <c r="B21">
         <v>190.63884197095902</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>96.657371834026819</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>60.2222037274706</v>
       </c>
       <c r="B22">
         <v>90.406387601821066</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>189.92953062849389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>210.81538059236581</v>
       </c>
       <c r="B23">
         <v>109.95629892938132</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>230.14295970326026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>319.15616724612562</v>
       </c>
       <c r="B24">
         <v>111.51821098433075</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>157.54134482447282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>598.82694447368078</v>
       </c>
       <c r="B25">
         <v>1560.4646011088671</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1460.7446677249509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>179.88082971899973</v>
       </c>
       <c r="B26">
         <v>239.61326769240941</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>97.934745905982894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>191.73572726458286</v>
       </c>
       <c r="B27">
         <v>73.247966240934247</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>173.63950370296635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>431.49160889979873</v>
       </c>
       <c r="B28">
         <v>142.08550520837451</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>119.55789893025417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>168.88360693342304</v>
       </c>
       <c r="B29">
         <v>242.89689703155528</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>117.10561299921895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>278.27092117778744</v>
       </c>
       <c r="B30">
         <v>467.90715943625173</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>295.01976393907955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>54.444984222097304</v>
       </c>
       <c r="B31">
         <v>55.066507350674598</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>143.69207087426759</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>177.49114042271819</v>
       </c>
       <c r="B32">
         <v>126.40535364307159</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>136.84060763261104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>216.40393379050798</v>
       </c>
       <c r="B33">
         <v>729.49819465904625</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>166.24919124075396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>128.51134857646875</v>
       </c>
       <c r="B34">
         <v>73.311044831025924</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>54.499642211747499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>197.37227948564077</v>
       </c>
       <c r="B35">
         <v>130.93803491013622</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>126.09551966095127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>112.51430612406719</v>
       </c>
       <c r="B36">
         <v>125.35779633751648</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>140.96391287766096</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>118.43888633610604</v>
       </c>
       <c r="B37">
         <v>65.235227638056188</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>91.642220900865624</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>159.03987904036174</v>
       </c>
       <c r="B38">
         <v>197.66802644903856</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>104.63485547718095</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>265.35213414640992</v>
       </c>
       <c r="B39">
         <v>289.44304702839526</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>103.97601032184438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>91.629049920829175</v>
       </c>
       <c r="B40">
         <v>138.99593044461807</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>147.16795837919736</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>60.099837107192421</v>
       </c>
       <c r="B41">
         <v>100.81232290889952</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>88.166444974668252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>260.4474788178984</v>
       </c>
       <c r="B42">
         <v>224.13644464129121</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>176.62797127441397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>253.2213853497399</v>
       </c>
       <c r="B43">
         <v>685.74382343870923</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>117.24847142803679</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>436.52548748976051</v>
       </c>
       <c r="B44">
         <v>439.56923483299192</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>196.84478839292458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>168.83944529908868</v>
       </c>
       <c r="B45">
         <v>267.28040806943028</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>183.40380084754372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>590.51038274827408</v>
       </c>
       <c r="B46">
         <v>394.43884870494958</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>132.29104547289614</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>110.60695016387211</v>
       </c>
       <c r="B47">
         <v>90.750347380781278</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>165.11028588707956</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>638.9200828078225</v>
       </c>
       <c r="B48">
         <v>1155.2967259501504</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>100.55542118659319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>75.313218014630436</v>
       </c>
       <c r="B49">
         <v>55.016425167161273</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>139.61492616903348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>295.23618133861663</v>
       </c>
       <c r="B50">
         <v>185.14911228488347</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>53.22829930667946</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>220.03120412468897</v>
       </c>
       <c r="B51">
         <v>422.36992910375557</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>147.60784681654604</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>192.77942348560944</v>
       </c>
       <c r="B52">
         <v>163.35721464053626</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>272.87232008598306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>89.548402612341789</v>
       </c>
       <c r="B53">
         <v>236.91486552752627</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>50.014399280365168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>158.94782888785682</v>
       </c>
       <c r="B54">
         <v>491.77126540217364</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>221.65436276573558</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>121.94937575301155</v>
       </c>
       <c r="B55">
         <v>148.48093489892099</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>205.5374893221356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>91.440564963434269</v>
       </c>
       <c r="B56">
         <v>148.34148512761894</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>240.98227821766955</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>82.315440861619322</v>
       </c>
       <c r="B57">
         <v>89.739345231615957</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>396.1817526947487</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>219.3045029553393</v>
       </c>
       <c r="B58">
         <v>426.15160555891407</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>284.6517480850369</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1764.1651751177524</v>
       </c>
       <c r="B59">
         <v>939.43119246411561</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>76.883465015268015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>234.50718725434209</v>
       </c>
       <c r="B60">
         <v>290.35549992752271</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>110.6117017211043</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>369.41871097427617</v>
       </c>
       <c r="B61">
         <v>75.420263929893025</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>2727.9854141250898</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>264.11781516599905</v>
       </c>
       <c r="B62">
         <v>285.28408998196187</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>77.00448135289227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>201.23199594241319</v>
       </c>
       <c r="B63">
         <v>301.67918320860804</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>380.61763131217123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>300.53455642282967</v>
       </c>
       <c r="B64">
         <v>359.99214610526741</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>224.17614979095833</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>168.88360693342304</v>
       </c>
       <c r="B65">
         <v>1260.0688255130665</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>2089.0744260041602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66.837075989287129</v>
       </c>
       <c r="B66">
         <v>91.360849373412975</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>81.403411717701061</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>295.53108602942956</v>
       </c>
       <c r="B67">
         <v>156.78862977588548</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>137.37020444456704</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>70.123066650014167</v>
       </c>
       <c r="B68">
         <v>465.22846824598309</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>233.66413427508297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>849.43549839862942</v>
       </c>
       <c r="B69">
         <v>113.93326274995657</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>2213.8685081065209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>38.219776723536242</v>
       </c>
       <c r="B70">
         <v>240.86375413550522</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>315.07964180909289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>131.14394412371689</v>
       </c>
       <c r="B71">
         <v>68.802202340666014</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>238.2387465893319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1347.510666281592</v>
       </c>
       <c r="B72">
         <v>1206.7757621704648</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>134.35964729947548</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>104.45517968772337</v>
       </c>
       <c r="B73">
         <v>312.64768037359687</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>194.50145239405569</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>69.785145872209483</v>
       </c>
       <c r="B74">
         <v>53.086887208599066</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>178.3501141897091</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>484.78134445402219</v>
       </c>
       <c r="B75">
         <v>1414.2407900561986</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>151.25718002501259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>577.58872833152452</v>
       </c>
       <c r="B76">
         <v>708.20329588468076</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>140.36729821460222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>223.38992543215312</v>
       </c>
       <c r="B77">
         <v>139.64229401556486</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>142.31975134282339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>135.19355527501534</v>
       </c>
       <c r="B78">
         <v>211.38864119499701</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>132.06240841058394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>702.24052887707103</v>
       </c>
       <c r="B79">
         <v>766.38106372634206</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>105.42815257164159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>97.582486885114207</v>
       </c>
       <c r="B80">
         <v>87.589638821471482</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>78.655794030849549</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1180.233853063696</v>
       </c>
       <c r="B81">
         <v>124.19362497710685</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>113.97285499166284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>577.51538148842064</v>
       </c>
       <c r="B82">
         <v>348.42410150005321</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>584.86531176000585</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>224.27361092643244</v>
       </c>
       <c r="B83">
         <v>135.42724417917162</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>115.72023873864457</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>144.55978003383331</v>
       </c>
       <c r="B84">
         <v>154.06561903686099</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>578.73060743293877</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>186.05019506299766</v>
       </c>
       <c r="B85">
         <v>131.51700634576576</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>157.03139280279893</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>590.51038274827408</v>
       </c>
       <c r="B86">
         <v>400.43436275506355</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>1254.6978169566214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>24.187310610083205</v>
       </c>
       <c r="B87">
         <v>67.525992115559049</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>124.34354391937207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>806.09222824091148</v>
       </c>
       <c r="B88">
         <v>400.75280144713463</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>407.23133760102667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>142.631497740068</v>
       </c>
       <c r="B89">
         <v>105.86276050438737</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>114.07885355588287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>806.3508266493003</v>
       </c>
       <c r="B90">
         <v>355.59976673001796</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>162.43633494022296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>134.54668738958546</v>
       </c>
       <c r="B91">
         <v>49.535750190862103</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>2171.4142387008965</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>546.63814203875654</v>
       </c>
       <c r="B92">
         <v>468.21481856389101</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>53.767290564453553</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>134.92122753868455</v>
       </c>
       <c r="B93">
         <v>155.45850674847441</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>271.24448593892879</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>450.47635915660595</v>
       </c>
       <c r="B94">
         <v>551.26750230202788</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>135.25824351992276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>89.890500045004117</v>
       </c>
       <c r="B95">
         <v>134.16833186655643</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>154.97896572186949</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2277.3019122422143</v>
       </c>
       <c r="B96">
         <v>2291.7202872212765</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>94.633284596474937</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>483.08466892569589</v>
       </c>
       <c r="B97">
         <v>285.31149092720972</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>204.42347101122388</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>523.4760289326581</v>
       </c>
       <c r="B98">
         <v>191.479050325054</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>104.00657227897257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>217.33615911218936</v>
       </c>
       <c r="B99">
         <v>729.24570428542404</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>172.65810481400294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>115.57072332999435</v>
       </c>
       <c r="B100">
         <v>86.227167347926255</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>342.43462938607354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>140.94792741054249</v>
       </c>
       <c r="B101">
         <v>159.08136555128664</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>100.54579614279638</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>124.29736595741609</v>
       </c>
       <c r="B102">
         <v>106.31905898143641</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>95.492835142665655</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>165.64628042646018</v>
       </c>
       <c r="B103">
         <v>382.4744298782378</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>2027.6293296786414</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>314.70946121370946</v>
       </c>
       <c r="B104">
         <v>266.80124243037426</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>122.49322747472851</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>33.814344317911619</v>
       </c>
       <c r="B105">
         <v>44.036076898973391</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>166.12175825450606</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>111.63812062359796</v>
       </c>
       <c r="B106">
         <v>212.95754887157111</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>181.29499269144551</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>140.23944713500953</v>
       </c>
       <c r="B107">
         <v>149.98393362150304</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>148.91426114953126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>262.09726300322342</v>
       </c>
       <c r="B108">
         <v>271.12251695423794</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>169.83169457456239</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>147.05354159641655</v>
       </c>
       <c r="B109">
         <v>88.67504234287135</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>142.69973164995616</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>148.40967054872016</v>
       </c>
       <c r="B110">
         <v>159.0430138542186</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>98.280454743237385</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>386.07795994023576</v>
       </c>
       <c r="B111">
         <v>268.29328400887374</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>136.03500750147219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>982.51785371566837</v>
       </c>
       <c r="B112">
         <v>1047.4526083052058</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>45.286356503610747</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1004.8223697572962</v>
       </c>
       <c r="B113">
         <v>120.02253777882765</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>96.031100385321963</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>352.90609367654042</v>
       </c>
       <c r="B114">
         <v>354.64600129180133</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>107.89944934403496</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>151.64401323901396</v>
       </c>
       <c r="B115">
         <v>153.58214729016302</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>119.4410720548442</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>55.039189793291449</v>
       </c>
       <c r="B116">
         <v>101.38587742321718</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>2251.5715585009516</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>447.57732093080085</v>
       </c>
       <c r="B117">
         <v>382.49525004244873</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>195.3059099199686</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1567.6414805804534</v>
       </c>
       <c r="B118">
         <v>275.14102412450342</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>150.20487045075834</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>139.53039059209877</v>
       </c>
       <c r="B119">
         <v>157.20089579712149</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>149.27125947502617</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>619.74259456047503</v>
       </c>
       <c r="B120">
         <v>339.03141838174759</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>2787.4422799839631</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>301.68313031688649</v>
       </c>
       <c r="B121">
         <v>363.0966037703148</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>65.349727347331765</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1351.5827638234825</v>
       </c>
       <c r="B122">
         <v>1236.5153316910619</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>29.589352830522198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>131.27920645161603</v>
       </c>
       <c r="B123">
         <v>197.49869236817651</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>237.98145054763071</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>159.86040334415958</v>
       </c>
       <c r="B124">
         <v>105.90898072366771</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>122.44026347213375</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>104.27128920058196</v>
       </c>
       <c r="B125">
         <v>1846.3636405224377</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>177.28276940665717</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>244.17139791804757</v>
       </c>
       <c r="B126">
         <v>371.61682679858006</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>97.589304475983454</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>3261.3899150777365</v>
       </c>
       <c r="B127">
         <v>497.61209390568217</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>148.29105205743198</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>168.63035901590041</v>
       </c>
       <c r="B128">
         <v>113.08520479939014</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>96.663876737281527</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>904.46224415098459</v>
       </c>
       <c r="B129">
         <v>171.28803119548974</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>98.562628703798552</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>224.94503054646253</v>
       </c>
       <c r="B130">
         <v>207.22237446906709</v>
+      </c>
+      <c r="C130">
+        <v>82.885764053107636</v>
       </c>
     </row>
   </sheetData>
